--- a/trunk/Trabajo Practico nº2/Libreria/Costos x scrap.xlsx
+++ b/trunk/Trabajo Practico nº2/Libreria/Costos x scrap.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144315"/>
 </workbook>
@@ -125,12 +123,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -160,7 +164,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -269,6 +273,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,19 +596,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L31"/>
+  <dimension ref="A4:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="12" max="13" width="17.7109375" customWidth="1"/>
+    <col min="10" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,20 +617,18 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="41" t="s">
+      <c r="G4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="H4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="42" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -621,44 +637,40 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="31">
+      <c r="G5" s="31">
         <v>28</v>
       </c>
-      <c r="J5" s="4">
-        <f>L5/I5</f>
+      <c r="H5" s="4">
+        <f>J5/G5</f>
         <v>8.2177397842857154</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16">
+      <c r="I5" s="15"/>
+      <c r="J5" s="16">
         <v>230.09671396000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="31">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46">
         <v>3</v>
       </c>
-      <c r="J6" s="4">
-        <f t="shared" ref="J6:J25" si="0">L6/I6</f>
+      <c r="H6" s="47">
+        <f t="shared" ref="H6:H25" si="0">J6/G6</f>
         <v>17.578863999999999</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16">
+      <c r="I6" s="48"/>
+      <c r="J6" s="49">
         <v>52.736592000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -667,21 +679,19 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="31">
+      <c r="G7" s="31">
         <v>1</v>
       </c>
-      <c r="J7" s="4">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>9.2925000000000004</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16">
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
         <v>9.2925000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -690,38 +700,36 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="31">
+      <c r="G8" s="31">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>9.2925000000000004</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16">
+      <c r="I8" s="15"/>
+      <c r="J8" s="16">
         <v>9.2925000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="32">
-        <f>SUM(I5:I8)</f>
+      <c r="G9" s="32">
+        <f>SUM(G5:G8)</f>
         <v>33</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="28" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="27">
-        <f>SUM(L5:L8)</f>
+      <c r="J9" s="27">
+        <f>SUM(J5:J8)</f>
         <v>301.41830596000005</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -730,14 +738,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
@@ -746,21 +752,19 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="33">
+      <c r="G11" s="33">
         <v>14</v>
       </c>
-      <c r="J11" s="4">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>2.5693931428571433</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="9">
+      <c r="I11" s="5"/>
+      <c r="J11" s="9">
         <v>35.971504000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
         <v>7</v>
@@ -769,38 +773,36 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="33">
+      <c r="G12" s="33">
         <v>10</v>
       </c>
-      <c r="J12" s="4">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>2.1918120000000005</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="9">
+      <c r="I12" s="5"/>
+      <c r="J12" s="9">
         <v>21.918120000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="32">
-        <f>SUM(I11:I12)</f>
+      <c r="G13" s="32">
+        <f>SUM(G11:G12)</f>
         <v>24</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="28" t="s">
+      <c r="H13" s="43"/>
+      <c r="I13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="27">
-        <f>SUM(L11:L12)</f>
+      <c r="J13" s="27">
+        <f>SUM(J11:J12)</f>
         <v>57.889624000000012</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -811,13 +813,11 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="34"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="13" t="s">
@@ -826,20 +826,18 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="35">
+      <c r="G15" s="35">
         <v>9</v>
       </c>
-      <c r="J15" s="4">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>4.8135000000000003</v>
       </c>
-      <c r="L15" s="14">
+      <c r="J15" s="14">
         <v>43.3215</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
@@ -848,43 +846,39 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="35">
+      <c r="G16" s="35">
         <v>1</v>
       </c>
-      <c r="J16" s="4">
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
         <v>4.5824999999999996</v>
       </c>
-      <c r="L16" s="14">
+      <c r="J16" s="14">
         <v>4.5824999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="36">
-        <f>SUM(I15:I16)</f>
+      <c r="G17" s="36">
+        <f>SUM(G15:G16)</f>
         <v>10</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="17" t="s">
+      <c r="H17" s="43"/>
+      <c r="I17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="19">
-        <f>SUM(L15:L16)</f>
+      <c r="J17" s="19">
+        <f>SUM(J15:J16)</f>
         <v>47.903999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>11</v>
       </c>
@@ -893,14 +887,12 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="37"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="20" t="s">
         <v>12</v>
@@ -909,21 +901,19 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="38">
+      <c r="G19" s="38">
         <v>14</v>
       </c>
-      <c r="J19" s="4">
+      <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>0.41694171428571425</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="21">
+      <c r="I19" s="17"/>
+      <c r="J19" s="21">
         <v>5.8371839999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="20" t="s">
         <v>1</v>
@@ -932,21 +922,19 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="38">
+      <c r="G20" s="38">
         <v>1</v>
       </c>
-      <c r="J20" s="4">
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>1.197133</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="21">
+      <c r="I20" s="17"/>
+      <c r="J20" s="21">
         <v>1.197133</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="20" t="s">
         <v>13</v>
@@ -955,38 +943,36 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="38">
+      <c r="G21" s="38">
         <v>2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="H21" s="4">
         <f t="shared" si="0"/>
         <v>0.25096000000000002</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="21">
+      <c r="I21" s="17"/>
+      <c r="J21" s="21">
         <v>0.50192000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="32">
-        <f>SUM(I19:I21)</f>
+      <c r="G22" s="32">
+        <f>SUM(G19:G21)</f>
         <v>17</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="28" t="s">
+      <c r="H22" s="43"/>
+      <c r="I22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="27">
-        <f>SUM(L19:L21)</f>
+      <c r="J22" s="27">
+        <f>SUM(J19:J21)</f>
         <v>7.5362369999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>14</v>
       </c>
@@ -995,14 +981,12 @@
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="39"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="25" t="s">
         <v>4</v>
@@ -1011,21 +995,19 @@
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="40">
+      <c r="G24" s="40">
         <v>2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>15.605308000000001</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="26">
+      <c r="I24" s="22"/>
+      <c r="J24" s="26">
         <v>31.210616000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="25" t="s">
         <v>15</v>
@@ -1034,105 +1016,92 @@
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="40">
+      <c r="G25" s="40">
         <v>2</v>
       </c>
-      <c r="J25" s="4">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>15.605308000000001</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="26">
+      <c r="I25" s="22"/>
+      <c r="J25" s="26">
         <v>31.210616000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="32">
-        <f>SUM(I24:I25)</f>
+      <c r="G26" s="32">
+        <f>SUM(G24:G25)</f>
         <v>4</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="28" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="27">
-        <f>SUM(L24:L25)</f>
+      <c r="J26" s="27">
+        <f>SUM(J24:J25)</f>
         <v>62.421232000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="25"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="25"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="25"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I31" s="30">
-        <f>I26+I22+I17+I13+I9</f>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="30">
+        <f>G26+G22+G17+G13+G9</f>
         <v>88</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27" t="e">
-        <f t="shared" ref="J31:L31" si="1">K26+K22+K17+K13+K9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" s="27">
-        <f t="shared" si="1"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27">
+        <f t="shared" ref="I31:J31" si="1">J26+J22+J17+J13+J9</f>
         <v>477.16939896000008</v>
       </c>
     </row>
@@ -1140,28 +1109,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>